--- a/week-1/Solutions/1-3-A-conditional-logic/warm-up-conditional-logic-solution.xlsx
+++ b/week-1/Solutions/1-3-A-conditional-logic/warm-up-conditional-logic-solution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\Documents\GitHub\data-analytics-lectures\week-1\Solutions\1-3-A-conditional-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,8 +444,7 @@
         <v>95</v>
       </c>
       <c r="D2">
-        <f>IF(AND(B2&gt;100,C2&gt;100),0.07,
-IF(OR(B2&gt;100,C2&gt;100),0.05,0.3))</f>
+        <f>IF(AND(B2&gt;100,C2&gt;100),0.07, IF(OR(B2&gt;100,C2&gt;100),0.05,0.3))</f>
         <v>0.05</v>
       </c>
       <c r="E2">
@@ -464,8 +463,7 @@
         <v>98</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="0">IF(AND(B3&gt;100,C3&gt;100),0.07,
-IF(OR(B3&gt;100,C3&gt;100),0.05,0.3))</f>
+        <f t="shared" ref="D3:D16" si="0">IF(AND(B3&gt;100,C3&gt;100),0.07, IF(OR(B3&gt;100,C3&gt;100),0.05,0.3))</f>
         <v>0.3</v>
       </c>
       <c r="E3">
